--- a/RNWF_structure_new.xlsx
+++ b/RNWF_structure_new.xlsx
@@ -21,7 +21,7 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId8"/>
+    <pivotCache cacheId="0" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -784,7 +784,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="239">
   <si>
     <t>01.02.2023</t>
   </si>
@@ -1490,6 +1490,18 @@
   <si>
     <t>01.03.2025</t>
   </si>
+  <si>
+    <t>Ж/Д Москва - СПб</t>
+  </si>
+  <si>
+    <t>2024-2027</t>
+  </si>
+  <si>
+    <t>К финансированию в 2025 г</t>
+  </si>
+  <si>
+    <t>ООО "ВСМ Две Столиы"</t>
+  </si>
 </sst>
 </file>
 
@@ -1616,7 +1628,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1665,12 +1677,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="177">
+  <dxfs count="93">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1731,594 +1749,6 @@
       <fill>
         <patternFill patternType="none">
           <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4472,7 +3902,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="J8:N26" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
@@ -4588,7 +4018,7 @@
     <dataField name="Сумма по полю Сумма, млн. руб" fld="2" baseField="0" baseItem="379974688"/>
   </dataFields>
   <formats count="93">
-    <format dxfId="176">
+    <format dxfId="92">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="1">
@@ -4597,7 +4027,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="175">
+    <format dxfId="91">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="1">
@@ -4606,7 +4036,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="174">
+    <format dxfId="90">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="1">
@@ -4615,7 +4045,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="173">
+    <format dxfId="89">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="1">
@@ -4624,7 +4054,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="172">
+    <format dxfId="88">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="1">
@@ -4633,7 +4063,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="171">
+    <format dxfId="87">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="1">
@@ -4642,7 +4072,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="170">
+    <format dxfId="86">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="1">
@@ -4651,7 +4081,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="169">
+    <format dxfId="85">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="1">
@@ -4660,14 +4090,14 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="168">
+    <format dxfId="84">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="167">
+    <format dxfId="83">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="1">
@@ -4676,7 +4106,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="166">
+    <format dxfId="82">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="1">
@@ -4685,7 +4115,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="165">
+    <format dxfId="81">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="1">
@@ -4694,7 +4124,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="164">
+    <format dxfId="80">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="1">
@@ -4703,7 +4133,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="163">
+    <format dxfId="79">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="1">
@@ -4712,7 +4142,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="162">
+    <format dxfId="78">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="1">
@@ -4721,7 +4151,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="161">
+    <format dxfId="77">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="1">
@@ -4730,7 +4160,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="160">
+    <format dxfId="76">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="1">
@@ -4739,7 +4169,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="159">
+    <format dxfId="75">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="11">
@@ -4758,7 +4188,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="158">
+    <format dxfId="74">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="11">
@@ -4777,7 +4207,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="157">
+    <format dxfId="73">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="1">
@@ -4786,7 +4216,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="156">
+    <format dxfId="72">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="1">
@@ -4795,7 +4225,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="155">
+    <format dxfId="71">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="1">
@@ -4804,7 +4234,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="154">
+    <format dxfId="70">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="1">
@@ -4813,7 +4243,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="153">
+    <format dxfId="69">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="1">
@@ -4822,7 +4252,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="152">
+    <format dxfId="68">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="1">
@@ -4831,7 +4261,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="151">
+    <format dxfId="67">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="1">
@@ -4840,7 +4270,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="150">
+    <format dxfId="66">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="1">
@@ -4849,7 +4279,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="149">
+    <format dxfId="65">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="1">
@@ -4858,7 +4288,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="148">
+    <format dxfId="64">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="11">
@@ -4877,7 +4307,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="147">
+    <format dxfId="63">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="1">
@@ -4886,7 +4316,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="146">
+    <format dxfId="62">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="1">
@@ -4895,7 +4325,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="145">
+    <format dxfId="61">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="1">
@@ -4904,7 +4334,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="144">
+    <format dxfId="60">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="1">
@@ -4913,7 +4343,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="143">
+    <format dxfId="59">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="1">
@@ -4922,7 +4352,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="142">
+    <format dxfId="58">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="1">
@@ -4931,7 +4361,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="141">
+    <format dxfId="57">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="1">
@@ -4940,7 +4370,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="140">
+    <format dxfId="56">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="1">
@@ -4949,7 +4379,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="139">
+    <format dxfId="55">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="11">
@@ -4968,7 +4398,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="138">
+    <format dxfId="54">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="1">
@@ -4977,7 +4407,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="137">
+    <format dxfId="53">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="1">
@@ -4986,7 +4416,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="136">
+    <format dxfId="52">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="1">
@@ -4995,7 +4425,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="135">
+    <format dxfId="51">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="1">
@@ -5004,7 +4434,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="134">
+    <format dxfId="50">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="1">
@@ -5013,7 +4443,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="133">
+    <format dxfId="49">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="1">
@@ -5022,7 +4452,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="132">
+    <format dxfId="48">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="1">
@@ -5031,14 +4461,14 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="131">
+    <format dxfId="47">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="130">
+    <format dxfId="46">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="1">
@@ -5047,7 +4477,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="129">
+    <format dxfId="45">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="1">
@@ -5056,7 +4486,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="128">
+    <format dxfId="44">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="1">
@@ -5065,7 +4495,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="127">
+    <format dxfId="43">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="1">
@@ -5074,7 +4504,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="126">
+    <format dxfId="42">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="1">
@@ -5083,7 +4513,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="125">
+    <format dxfId="41">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="1">
@@ -5092,7 +4522,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="124">
+    <format dxfId="40">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="1">
@@ -5101,7 +4531,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="123">
+    <format dxfId="39">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="1">
@@ -5110,7 +4540,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="122">
+    <format dxfId="38">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="11">
@@ -5129,7 +4559,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="121">
+    <format dxfId="37">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="1">
@@ -5138,7 +4568,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="120">
+    <format dxfId="36">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="1">
@@ -5147,7 +4577,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="119">
+    <format dxfId="35">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="1">
@@ -5156,7 +4586,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="118">
+    <format dxfId="34">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="1">
@@ -5165,7 +4595,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="117">
+    <format dxfId="33">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="1">
@@ -5174,7 +4604,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="116">
+    <format dxfId="32">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="1">
@@ -5183,7 +4613,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="115">
+    <format dxfId="31">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="1">
@@ -5192,7 +4622,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="114">
+    <format dxfId="30">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="1">
@@ -5201,13 +4631,13 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="113">
+    <format dxfId="29">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="112">
+    <format dxfId="28">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="111">
+    <format dxfId="27">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="11">
@@ -5226,7 +4656,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="110">
+    <format dxfId="26">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="1">
@@ -5235,7 +4665,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="109">
+    <format dxfId="25">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="1">
@@ -5244,7 +4674,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="108">
+    <format dxfId="24">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="1">
@@ -5253,7 +4683,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="107">
+    <format dxfId="23">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="1">
@@ -5262,7 +4692,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="106">
+    <format dxfId="22">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="1">
@@ -5271,7 +4701,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="105">
+    <format dxfId="21">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="1">
@@ -5280,7 +4710,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="104">
+    <format dxfId="20">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="1">
@@ -5289,7 +4719,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="103">
+    <format dxfId="19">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="1">
@@ -5298,7 +4728,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="102">
+    <format dxfId="18">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="1">
@@ -5307,14 +4737,14 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="101">
+    <format dxfId="17">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="100">
+    <format dxfId="16">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="1">
@@ -5323,7 +4753,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="99">
+    <format dxfId="15">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="1">
@@ -5332,7 +4762,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="98">
+    <format dxfId="14">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="1">
@@ -5341,7 +4771,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="97">
+    <format dxfId="13">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="1">
@@ -5350,7 +4780,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="96">
+    <format dxfId="12">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="1">
@@ -5359,7 +4789,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="95">
+    <format dxfId="11">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="1">
@@ -5368,7 +4798,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="94">
+    <format dxfId="10">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="1">
@@ -5377,7 +4807,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="93">
+    <format dxfId="9">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="1">
@@ -5753,10 +5183,10 @@
   <dimension ref="A1:BM80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="U18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="X22" sqref="X22"/>
+      <selection pane="bottomRight" activeCell="AF44" sqref="AF44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6927,11 +6357,11 @@
         <v>30000</v>
       </c>
       <c r="AE9" s="1">
-        <f>AD9</f>
+        <f t="shared" ref="AE9:AF13" si="12">AD9</f>
         <v>30000</v>
       </c>
       <c r="AF9" s="1">
-        <f>AE9</f>
+        <f t="shared" si="12"/>
         <v>30000</v>
       </c>
       <c r="AG9" s="17">
@@ -7064,11 +6494,11 @@
         <v>40000</v>
       </c>
       <c r="AE10" s="1">
-        <f>AD10</f>
+        <f t="shared" si="12"/>
         <v>40000</v>
       </c>
       <c r="AF10" s="1">
-        <f>AE10</f>
+        <f t="shared" si="12"/>
         <v>40000</v>
       </c>
       <c r="AG10" s="17">
@@ -7201,11 +6631,11 @@
         <v>138830</v>
       </c>
       <c r="AE11" s="1">
-        <f>AD11</f>
+        <f t="shared" si="12"/>
         <v>138830</v>
       </c>
       <c r="AF11" s="1">
-        <f>AE11</f>
+        <f t="shared" si="12"/>
         <v>138830</v>
       </c>
       <c r="AG11" s="17">
@@ -7338,11 +6768,11 @@
         <v>197580</v>
       </c>
       <c r="AE12" s="1">
-        <f>AD12</f>
+        <f t="shared" si="12"/>
         <v>197580</v>
       </c>
       <c r="AF12" s="1">
-        <f>AE12</f>
+        <f t="shared" si="12"/>
         <v>197580</v>
       </c>
       <c r="AG12" s="17">
@@ -7475,11 +6905,11 @@
         <v>16240</v>
       </c>
       <c r="AE13" s="1">
-        <f>AD13</f>
+        <f t="shared" si="12"/>
         <v>16240</v>
       </c>
       <c r="AF13" s="1">
-        <f>AE13</f>
+        <f t="shared" si="12"/>
         <v>16240</v>
       </c>
       <c r="AG13" s="17">
@@ -7965,59 +7395,59 @@
         <v>154.9</v>
       </c>
       <c r="R17" s="1">
-        <f t="shared" ref="R17:W17" si="12">Q17</f>
+        <f t="shared" ref="R17:W17" si="13">Q17</f>
         <v>154.9</v>
       </c>
       <c r="S17" s="1">
-        <f t="shared" si="12"/>
-        <v>154.9</v>
-      </c>
-      <c r="T17" s="1">
-        <f t="shared" si="12"/>
-        <v>154.9</v>
-      </c>
-      <c r="U17" s="1">
-        <f t="shared" si="12"/>
-        <v>154.9</v>
-      </c>
-      <c r="V17" s="1">
-        <f t="shared" si="12"/>
-        <v>154.9</v>
-      </c>
-      <c r="W17" s="1">
-        <f t="shared" si="12"/>
-        <v>154.9</v>
-      </c>
-      <c r="X17" s="1">
-        <f t="shared" ref="X17:AC17" si="13">W17</f>
-        <v>154.9</v>
-      </c>
-      <c r="Y17" s="1">
         <f t="shared" si="13"/>
         <v>154.9</v>
       </c>
-      <c r="Z17" s="1">
+      <c r="T17" s="1">
         <f t="shared" si="13"/>
         <v>154.9</v>
       </c>
-      <c r="AA17" s="1">
+      <c r="U17" s="1">
         <f t="shared" si="13"/>
         <v>154.9</v>
       </c>
-      <c r="AB17" s="1">
+      <c r="V17" s="1">
         <f t="shared" si="13"/>
         <v>154.9</v>
       </c>
-      <c r="AC17" s="1">
+      <c r="W17" s="1">
         <f t="shared" si="13"/>
         <v>154.9</v>
       </c>
+      <c r="X17" s="1">
+        <f t="shared" ref="X17:AC17" si="14">W17</f>
+        <v>154.9</v>
+      </c>
+      <c r="Y17" s="1">
+        <f t="shared" si="14"/>
+        <v>154.9</v>
+      </c>
+      <c r="Z17" s="1">
+        <f t="shared" si="14"/>
+        <v>154.9</v>
+      </c>
+      <c r="AA17" s="1">
+        <f t="shared" si="14"/>
+        <v>154.9</v>
+      </c>
+      <c r="AB17" s="1">
+        <f t="shared" si="14"/>
+        <v>154.9</v>
+      </c>
+      <c r="AC17" s="1">
+        <f t="shared" si="14"/>
+        <v>154.9</v>
+      </c>
       <c r="AD17" s="1">
-        <f t="shared" ref="AD17:AE19" si="14">AC17</f>
+        <f t="shared" ref="AD17:AE19" si="15">AC17</f>
         <v>154.9</v>
       </c>
       <c r="AE17" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>154.9</v>
       </c>
       <c r="AF17" s="1">
@@ -8097,15 +7527,15 @@
         <v>300.5</v>
       </c>
       <c r="Z18" s="1">
-        <f t="shared" ref="Z18:AB19" si="15">Y18</f>
+        <f t="shared" ref="Z18:AB19" si="16">Y18</f>
         <v>300.5</v>
       </c>
       <c r="AA18" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>300.5</v>
       </c>
       <c r="AB18" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>300.5</v>
       </c>
       <c r="AC18" s="1">
@@ -8113,11 +7543,11 @@
         <v>300.5</v>
       </c>
       <c r="AD18" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>300.5</v>
       </c>
       <c r="AE18" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>300.5</v>
       </c>
       <c r="AF18" s="1">
@@ -8197,15 +7627,15 @@
         <v>939.5</v>
       </c>
       <c r="Z19" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>939.5</v>
       </c>
       <c r="AA19" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>939.5</v>
       </c>
       <c r="AB19" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>939.5</v>
       </c>
       <c r="AC19" s="1">
@@ -8213,11 +7643,11 @@
         <v>939.5</v>
       </c>
       <c r="AD19" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>939.5</v>
       </c>
       <c r="AE19" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>939.5</v>
       </c>
       <c r="AF19" s="1">
@@ -8307,11 +7737,11 @@
         <v>14570.5</v>
       </c>
       <c r="S20" s="1">
-        <f t="shared" ref="S20:T24" si="16">R20</f>
+        <f t="shared" ref="S20:T24" si="17">R20</f>
         <v>14570.5</v>
       </c>
       <c r="T20" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>14570.5</v>
       </c>
       <c r="U20" s="1">
@@ -8652,55 +8082,55 @@
         <v>120000</v>
       </c>
       <c r="S23" s="1">
-        <f t="shared" si="16"/>
-        <v>120000</v>
-      </c>
-      <c r="T23" s="1">
-        <f t="shared" si="16"/>
-        <v>120000</v>
-      </c>
-      <c r="U23" s="1">
-        <f t="shared" ref="U23:AE23" si="17">T23</f>
-        <v>120000</v>
-      </c>
-      <c r="V23" s="1">
         <f t="shared" si="17"/>
         <v>120000</v>
       </c>
-      <c r="W23" s="1">
+      <c r="T23" s="1">
         <f t="shared" si="17"/>
         <v>120000</v>
       </c>
+      <c r="U23" s="1">
+        <f t="shared" ref="U23:AE23" si="18">T23</f>
+        <v>120000</v>
+      </c>
+      <c r="V23" s="1">
+        <f t="shared" si="18"/>
+        <v>120000</v>
+      </c>
+      <c r="W23" s="1">
+        <f t="shared" si="18"/>
+        <v>120000</v>
+      </c>
       <c r="X23" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>120000</v>
       </c>
       <c r="Y23" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>120000</v>
       </c>
       <c r="Z23" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>120000</v>
       </c>
       <c r="AA23" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>120000</v>
       </c>
       <c r="AB23" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>120000</v>
       </c>
       <c r="AC23" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>120000</v>
       </c>
       <c r="AD23" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>120000</v>
       </c>
       <c r="AE23" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>120000</v>
       </c>
       <c r="AF23" s="1">
@@ -8804,11 +8234,11 @@
         <v>3000</v>
       </c>
       <c r="S24" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3000</v>
       </c>
       <c r="T24" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3000</v>
       </c>
       <c r="U24" s="1">
@@ -9089,58 +8519,58 @@
         <v>1875.5</v>
       </c>
       <c r="S26" s="1">
-        <f t="shared" ref="S26:T29" si="18">R26</f>
+        <f t="shared" ref="S26:T29" si="19">R26</f>
         <v>1875.5</v>
       </c>
       <c r="T26" s="1">
-        <f t="shared" si="18"/>
-        <v>1875.5</v>
-      </c>
-      <c r="U26" s="1">
-        <f t="shared" ref="U26:V29" si="19">T26</f>
-        <v>1875.5</v>
-      </c>
-      <c r="V26" s="1">
         <f t="shared" si="19"/>
         <v>1875.5</v>
       </c>
+      <c r="U26" s="1">
+        <f t="shared" ref="U26:V29" si="20">T26</f>
+        <v>1875.5</v>
+      </c>
+      <c r="V26" s="1">
+        <f t="shared" si="20"/>
+        <v>1875.5</v>
+      </c>
       <c r="W26" s="1">
         <v>1875.4</v>
       </c>
       <c r="X26" s="1">
-        <f t="shared" ref="X26:Y28" si="20">W26</f>
+        <f t="shared" ref="X26:Y28" si="21">W26</f>
         <v>1875.4</v>
       </c>
       <c r="Y26" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1875.4</v>
       </c>
       <c r="Z26" s="1">
-        <f t="shared" ref="Z26:AA29" si="21">Y26</f>
+        <f t="shared" ref="Z26:AA29" si="22">Y26</f>
         <v>1875.4</v>
       </c>
       <c r="AA26" s="1">
-        <f>Z26</f>
+        <f t="shared" ref="AA26:AF26" si="23">Z26</f>
         <v>1875.4</v>
       </c>
       <c r="AB26" s="1">
-        <f>AA26</f>
+        <f t="shared" si="23"/>
         <v>1875.4</v>
       </c>
       <c r="AC26" s="1">
-        <f>AB26</f>
+        <f t="shared" si="23"/>
         <v>1875.4</v>
       </c>
       <c r="AD26" s="1">
-        <f>AC26</f>
+        <f t="shared" si="23"/>
         <v>1875.4</v>
       </c>
       <c r="AE26" s="1">
-        <f>AD26</f>
+        <f t="shared" si="23"/>
         <v>1875.4</v>
       </c>
       <c r="AF26" s="1">
-        <f>AE26</f>
+        <f t="shared" si="23"/>
         <v>1875.4</v>
       </c>
       <c r="AG26" s="17">
@@ -9240,19 +8670,19 @@
         <v>214037.9</v>
       </c>
       <c r="S27" s="1">
-        <f t="shared" si="18"/>
-        <v>214037.9</v>
-      </c>
-      <c r="T27" s="1">
-        <f t="shared" si="18"/>
-        <v>214037.9</v>
-      </c>
-      <c r="U27" s="1">
         <f t="shared" si="19"/>
         <v>214037.9</v>
       </c>
+      <c r="T27" s="1">
+        <f t="shared" si="19"/>
+        <v>214037.9</v>
+      </c>
+      <c r="U27" s="1">
+        <f t="shared" si="20"/>
+        <v>214037.9</v>
+      </c>
       <c r="V27" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>214037.9</v>
       </c>
       <c r="W27" s="1">
@@ -9260,27 +8690,27 @@
         <v>214037.9</v>
       </c>
       <c r="X27" s="1">
-        <f t="shared" si="20"/>
-        <v>214037.9</v>
-      </c>
-      <c r="Y27" s="1">
-        <f t="shared" si="20"/>
-        <v>214037.9</v>
-      </c>
-      <c r="Z27" s="1">
         <f t="shared" si="21"/>
         <v>214037.9</v>
       </c>
-      <c r="AA27" s="1">
+      <c r="Y27" s="1">
         <f t="shared" si="21"/>
         <v>214037.9</v>
       </c>
+      <c r="Z27" s="1">
+        <f t="shared" si="22"/>
+        <v>214037.9</v>
+      </c>
+      <c r="AA27" s="1">
+        <f t="shared" si="22"/>
+        <v>214037.9</v>
+      </c>
       <c r="AB27" s="1">
-        <f t="shared" ref="AB27:AC29" si="22">AA27</f>
+        <f t="shared" ref="AB27:AC29" si="24">AA27</f>
         <v>214037.9</v>
       </c>
       <c r="AC27" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>214037.9</v>
       </c>
       <c r="AD27" s="1">
@@ -9391,19 +8821,19 @@
         <v>25000</v>
       </c>
       <c r="S28" s="1">
-        <f t="shared" si="18"/>
-        <v>25000</v>
-      </c>
-      <c r="T28" s="1">
-        <f t="shared" si="18"/>
-        <v>25000</v>
-      </c>
-      <c r="U28" s="1">
         <f t="shared" si="19"/>
         <v>25000</v>
       </c>
+      <c r="T28" s="1">
+        <f t="shared" si="19"/>
+        <v>25000</v>
+      </c>
+      <c r="U28" s="1">
+        <f t="shared" si="20"/>
+        <v>25000</v>
+      </c>
       <c r="V28" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>25000</v>
       </c>
       <c r="W28" s="1">
@@ -9411,27 +8841,27 @@
         <v>25000</v>
       </c>
       <c r="X28" s="1">
-        <f t="shared" si="20"/>
-        <v>25000</v>
-      </c>
-      <c r="Y28" s="1">
-        <f t="shared" si="20"/>
-        <v>25000</v>
-      </c>
-      <c r="Z28" s="1">
         <f t="shared" si="21"/>
         <v>25000</v>
       </c>
-      <c r="AA28" s="1">
+      <c r="Y28" s="1">
         <f t="shared" si="21"/>
         <v>25000</v>
       </c>
-      <c r="AB28" s="1">
+      <c r="Z28" s="1">
         <f t="shared" si="22"/>
         <v>25000</v>
       </c>
+      <c r="AA28" s="1">
+        <f t="shared" si="22"/>
+        <v>25000</v>
+      </c>
+      <c r="AB28" s="1">
+        <f t="shared" si="24"/>
+        <v>25000</v>
+      </c>
       <c r="AC28" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>25000</v>
       </c>
       <c r="AD28" s="1">
@@ -9542,19 +8972,19 @@
         <v>89954</v>
       </c>
       <c r="S29" s="1">
-        <f t="shared" si="18"/>
-        <v>89954</v>
-      </c>
-      <c r="T29" s="1">
-        <f t="shared" si="18"/>
-        <v>89954</v>
-      </c>
-      <c r="U29" s="1">
         <f t="shared" si="19"/>
         <v>89954</v>
       </c>
+      <c r="T29" s="1">
+        <f t="shared" si="19"/>
+        <v>89954</v>
+      </c>
+      <c r="U29" s="1">
+        <f t="shared" si="20"/>
+        <v>89954</v>
+      </c>
       <c r="V29" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>89954</v>
       </c>
       <c r="W29" s="1">
@@ -9569,19 +8999,19 @@
         <v>164954</v>
       </c>
       <c r="Z29" s="1">
-        <f t="shared" si="21"/>
-        <v>164954</v>
-      </c>
-      <c r="AA29" s="1">
-        <f t="shared" si="21"/>
-        <v>164954</v>
-      </c>
-      <c r="AB29" s="1">
         <f t="shared" si="22"/>
         <v>164954</v>
       </c>
+      <c r="AA29" s="1">
+        <f t="shared" si="22"/>
+        <v>164954</v>
+      </c>
+      <c r="AB29" s="1">
+        <f t="shared" si="24"/>
+        <v>164954</v>
+      </c>
       <c r="AC29" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>164954</v>
       </c>
       <c r="AD29" s="1">
@@ -9825,51 +9255,51 @@
         <v>38433.9</v>
       </c>
       <c r="R31" s="1">
-        <f t="shared" ref="R31:W31" si="23">Q31</f>
+        <f t="shared" ref="R31:W31" si="25">Q31</f>
         <v>38433.9</v>
       </c>
       <c r="S31" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>38433.9</v>
       </c>
       <c r="T31" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>38433.9</v>
       </c>
       <c r="U31" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>38433.9</v>
       </c>
       <c r="V31" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>38433.9</v>
       </c>
       <c r="W31" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>38433.9</v>
       </c>
       <c r="X31" s="1">
-        <f t="shared" ref="X31:AC31" si="24">W31</f>
+        <f t="shared" ref="X31:AC31" si="26">W31</f>
         <v>38433.9</v>
       </c>
       <c r="Y31" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>38433.9</v>
       </c>
       <c r="Z31" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>38433.9</v>
       </c>
       <c r="AA31" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>38433.9</v>
       </c>
       <c r="AB31" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>38433.9</v>
       </c>
       <c r="AC31" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>38433.9</v>
       </c>
       <c r="AD31" s="1">
@@ -10258,54 +9688,54 @@
         <v>137000</v>
       </c>
       <c r="T34" s="1">
-        <f t="shared" ref="T34:V35" si="25">S34</f>
+        <f t="shared" ref="T34:V35" si="27">S34</f>
         <v>137000</v>
       </c>
       <c r="U34" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>137000</v>
       </c>
       <c r="V34" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>137000</v>
       </c>
       <c r="W34" s="1">
         <v>137000</v>
       </c>
       <c r="X34" s="1">
-        <f t="shared" ref="X34:Z35" si="26">W34</f>
+        <f t="shared" ref="X34:Z35" si="28">W34</f>
         <v>137000</v>
       </c>
       <c r="Y34" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>137000</v>
       </c>
       <c r="Z34" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>137000</v>
       </c>
       <c r="AA34" s="1">
-        <f t="shared" ref="AA34:AC35" si="27">Z34</f>
+        <f t="shared" ref="AA34:AC35" si="29">Z34</f>
         <v>137000</v>
       </c>
       <c r="AB34" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>137000</v>
       </c>
       <c r="AC34" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>137000</v>
       </c>
       <c r="AD34" s="1">
-        <f>AC34</f>
+        <f t="shared" ref="AD34:AF35" si="30">AC34</f>
         <v>137000</v>
       </c>
       <c r="AE34" s="1">
-        <f>AD34</f>
+        <f t="shared" si="30"/>
         <v>137000</v>
       </c>
       <c r="AF34" s="1">
-        <f>AE34</f>
+        <f t="shared" si="30"/>
         <v>137000</v>
       </c>
       <c r="AG34" s="17">
@@ -10407,54 +9837,54 @@
         <v>58334</v>
       </c>
       <c r="T35" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>58334</v>
       </c>
       <c r="U35" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>58334</v>
       </c>
       <c r="V35" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>58334</v>
       </c>
       <c r="W35" s="1">
         <v>58334</v>
       </c>
       <c r="X35" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>58334</v>
       </c>
       <c r="Y35" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>58334</v>
       </c>
       <c r="Z35" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>58334</v>
       </c>
       <c r="AA35" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>58334</v>
       </c>
       <c r="AB35" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>58334</v>
       </c>
       <c r="AC35" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>58334</v>
       </c>
       <c r="AD35" s="1">
-        <f>AC35</f>
+        <f t="shared" si="30"/>
         <v>58334</v>
       </c>
       <c r="AE35" s="1">
-        <f>AD35</f>
+        <f t="shared" si="30"/>
         <v>58334</v>
       </c>
       <c r="AF35" s="1">
-        <f>AE35</f>
+        <f t="shared" si="30"/>
         <v>58334</v>
       </c>
       <c r="AG35" s="17">
@@ -10688,51 +10118,51 @@
         <v>467000</v>
       </c>
       <c r="R37" s="1">
-        <f t="shared" ref="R37:W37" si="28">Q37</f>
+        <f t="shared" ref="R37:W37" si="31">Q37</f>
         <v>467000</v>
       </c>
       <c r="S37" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>467000</v>
       </c>
       <c r="T37" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>467000</v>
       </c>
       <c r="U37" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>467000</v>
       </c>
       <c r="V37" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>467000</v>
       </c>
       <c r="W37" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>467000</v>
       </c>
       <c r="X37" s="1">
-        <f t="shared" ref="X37:AC37" si="29">W37</f>
+        <f t="shared" ref="X37:AC37" si="32">W37</f>
         <v>467000</v>
       </c>
       <c r="Y37" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>467000</v>
       </c>
       <c r="Z37" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>467000</v>
       </c>
       <c r="AA37" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>467000</v>
       </c>
       <c r="AB37" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>467000</v>
       </c>
       <c r="AC37" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>467000</v>
       </c>
       <c r="AD37" s="1">
@@ -11255,23 +10685,23 @@
         <v>60000</v>
       </c>
       <c r="S41" s="1">
-        <f t="shared" ref="S41:T44" si="30">R41</f>
+        <f t="shared" ref="S41:T44" si="33">R41</f>
         <v>60000</v>
       </c>
       <c r="T41" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>60000</v>
       </c>
       <c r="U41" s="1">
-        <f t="shared" ref="U41:W42" si="31">T41</f>
+        <f t="shared" ref="U41:W42" si="34">T41</f>
         <v>60000</v>
       </c>
       <c r="V41" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>60000</v>
       </c>
       <c r="W41" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>60000</v>
       </c>
       <c r="X41" s="1">
@@ -11404,23 +10834,23 @@
         <v>11000</v>
       </c>
       <c r="S42" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>11000</v>
       </c>
       <c r="T42" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>11000</v>
       </c>
       <c r="U42" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>11000</v>
       </c>
       <c r="V42" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>11000</v>
       </c>
       <c r="W42" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>11000</v>
       </c>
       <c r="X42" s="1">
@@ -11698,11 +11128,11 @@
         <v>17952.400000000001</v>
       </c>
       <c r="S44" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>17952.400000000001</v>
       </c>
       <c r="T44" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>17952.400000000001</v>
       </c>
       <c r="U44" s="1">
@@ -12784,31 +12214,31 @@
         <v>0.58612420781234509</v>
       </c>
       <c r="H53" s="2">
-        <f t="shared" ref="H53:P53" si="32">H51/H47</f>
+        <f t="shared" ref="H53:P53" si="35">H51/H47</f>
         <v>0.58040692300221342</v>
       </c>
       <c r="I53" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0.56375189299396378</v>
       </c>
       <c r="J53" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0.54736274210545677</v>
       </c>
       <c r="K53" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0.53775787202023262</v>
       </c>
       <c r="L53" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0.53756743798178575</v>
       </c>
       <c r="M53" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0.53955916671507109</v>
       </c>
       <c r="N53" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0.52917729826219351</v>
       </c>
       <c r="O53" s="2">
@@ -12816,55 +12246,55 @@
         <v>0.5231536235194193</v>
       </c>
       <c r="P53" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0.512383593941514</v>
       </c>
       <c r="Q53" s="2">
-        <f t="shared" ref="Q53:AB53" si="33">Q51/Q47</f>
+        <f t="shared" ref="Q53:AB53" si="36">Q51/Q47</f>
         <v>0.5022546948271378</v>
       </c>
       <c r="R53" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0.41886763318049314</v>
       </c>
       <c r="S53" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0.41158994383869518</v>
       </c>
       <c r="T53" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0.41151413411673016</v>
       </c>
       <c r="U53" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0.40590418684236312</v>
       </c>
       <c r="V53" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0.40563968683442053</v>
       </c>
       <c r="W53" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0.39720684013188351</v>
       </c>
       <c r="X53" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0.36529517554573743</v>
       </c>
       <c r="Y53" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0.37997060808910393</v>
       </c>
       <c r="Z53" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0.39902590320943759</v>
       </c>
       <c r="AA53" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0.41097342489213134</v>
       </c>
       <c r="AB53" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0.42803007482099326</v>
       </c>
       <c r="AC53" s="2">
@@ -23300,25 +22730,26 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="30.26953125" customWidth="1"/>
-    <col min="2" max="4" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.36328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.26953125" customWidth="1"/>
-    <col min="8" max="8" width="45.36328125" customWidth="1"/>
-    <col min="9" max="9" width="12.26953125" customWidth="1"/>
-    <col min="10" max="10" width="12.36328125" customWidth="1"/>
+    <col min="7" max="8" width="11.26953125" customWidth="1"/>
+    <col min="9" max="9" width="45.36328125" customWidth="1"/>
+    <col min="10" max="10" width="12.26953125" customWidth="1"/>
+    <col min="11" max="11" width="12.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="52" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="52" x14ac:dyDescent="0.35">
       <c r="A1" s="29" t="s">
         <v>192</v>
       </c>
@@ -23340,17 +22771,20 @@
       <c r="G1" s="29" t="s">
         <v>201</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="I1" s="29" t="s">
         <v>203</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="J1" s="29" t="s">
         <v>194</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="K1" s="29" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A2" s="24" t="s">
         <v>193</v>
       </c>
@@ -23375,17 +22809,21 @@
       <c r="G2" s="24" t="s">
         <v>202</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="24">
+        <f>213000-(Main_!AF21-Main_!AD21)</f>
+        <v>97855</v>
+      </c>
+      <c r="I2" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="J2" s="25" t="s">
         <v>195</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="K2" s="26" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="27" t="s">
         <v>226</v>
       </c>
@@ -23396,16 +22834,53 @@
       <c r="F3" s="27"/>
       <c r="G3" s="27"/>
       <c r="H3" s="27"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28" t="s">
+      <c r="I3" s="27"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="B4" s="24">
+        <v>2165514</v>
+      </c>
+      <c r="C4" s="24">
+        <v>300000</v>
+      </c>
+      <c r="D4" s="24">
+        <v>0</v>
+      </c>
+      <c r="E4" s="30">
+        <f>D4/C4</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="24">
+        <f>C4-D4</f>
+        <v>300000</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="H4" s="24">
+        <v>300000</v>
+      </c>
+      <c r="I4" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="J4" s="25"/>
+      <c r="K4" s="33" t="s">
         <v>76</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1"/>
-    <hyperlink ref="J2" r:id="rId2"/>
-    <hyperlink ref="J3" r:id="rId3"/>
+    <hyperlink ref="J2" r:id="rId1"/>
+    <hyperlink ref="K2" r:id="rId2"/>
+    <hyperlink ref="K3" r:id="rId3"/>
+    <hyperlink ref="K4" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
